--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>Alumnos</t>
   </si>
@@ -132,9 +132,6 @@
     <t>stfanya_12_08@hotmail.com</t>
   </si>
   <si>
-    <t>gngr92.gv@gmail.com</t>
-  </si>
-  <si>
     <t>elig0787@gmail.com</t>
   </si>
   <si>
@@ -169,6 +166,30 @@
   </si>
   <si>
     <t>keysanchez83@hotmail.com</t>
+  </si>
+  <si>
+    <t>ginger_velez@yahoo.com</t>
+  </si>
+  <si>
+    <t>marjorieestefania7merizalde@gmail.com</t>
+  </si>
+  <si>
+    <t>wilsonmotoche07039@gmail.com</t>
+  </si>
+  <si>
+    <t>carlos_espinoza88@hotmail.com</t>
+  </si>
+  <si>
+    <t>sluzleonor@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>kar2902@gmail.com</t>
+  </si>
+  <si>
+    <t>joseluisromero17@hotmail.com</t>
+  </si>
+  <si>
+    <t>m.andreacche@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -186,6 +207,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -553,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +590,7 @@
     <col min="8" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
@@ -592,7 +614,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,18 +682,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>27</v>
+      </c>
       <c r="B4">
         <v>2</v>
       </c>
@@ -687,8 +722,14 @@
       <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>26</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
@@ -705,7 +746,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6">
         <v>4</v>
       </c>
@@ -713,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
@@ -721,8 +765,14 @@
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
       <c r="B7">
         <v>5</v>
       </c>
@@ -730,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
@@ -738,8 +788,14 @@
       <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
+      </c>
       <c r="B8">
         <v>6</v>
       </c>
@@ -755,8 +811,14 @@
       <c r="F8" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
       <c r="B9">
         <v>7</v>
       </c>
@@ -764,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
@@ -772,8 +834,14 @@
       <c r="F9" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>23</v>
+      </c>
       <c r="B10">
         <v>8</v>
       </c>
@@ -781,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
@@ -789,8 +857,14 @@
       <c r="F10" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
       <c r="B11">
         <v>9</v>
       </c>
@@ -798,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
@@ -806,19 +880,35 @@
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>21</v>
+      </c>
       <c r="B13">
         <v>11</v>
       </c>
@@ -834,8 +924,14 @@
       <c r="F13" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
       <c r="B14">
         <v>12</v>
       </c>
@@ -843,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
@@ -851,44 +947,77 @@
       <c r="F14" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
       <c r="B18">
         <v>16</v>
       </c>
@@ -896,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
@@ -904,8 +1033,14 @@
       <c r="F18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19">
         <v>17</v>
       </c>
@@ -921,8 +1056,14 @@
       <c r="F19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
       <c r="B20">
         <v>18</v>
       </c>
@@ -930,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>3</v>
@@ -938,8 +1079,14 @@
       <c r="F20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
       <c r="B21">
         <v>19</v>
       </c>
@@ -955,16 +1102,34 @@
       <c r="F21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
       <c r="B23">
         <v>21</v>
       </c>
@@ -972,7 +1137,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
@@ -980,8 +1145,14 @@
       <c r="F23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
       <c r="B24">
         <v>22</v>
       </c>
@@ -989,7 +1160,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -997,22 +1168,37 @@
       <c r="F24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
       <c r="B25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
       <c r="B26">
         <v>24</v>
       </c>
@@ -1020,7 +1206,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -1028,8 +1214,14 @@
       <c r="F26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
       <c r="B27">
         <v>25</v>
       </c>
@@ -1037,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -1045,8 +1237,14 @@
       <c r="F27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
       <c r="B28">
         <v>26</v>
       </c>
@@ -1063,7 +1261,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
       <c r="B29">
         <v>27</v>
       </c>
@@ -1071,12 +1272,15 @@
         <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1105,9 +1309,16 @@
     <hyperlink ref="D10" r:id="rId18"/>
     <hyperlink ref="D18" r:id="rId19"/>
     <hyperlink ref="D26" r:id="rId20"/>
+    <hyperlink ref="D16" r:id="rId21"/>
+    <hyperlink ref="D17" r:id="rId22"/>
+    <hyperlink ref="D12" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D15" r:id="rId25"/>
+    <hyperlink ref="D22" r:id="rId26"/>
+    <hyperlink ref="D3" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>Alumnos</t>
   </si>
@@ -578,7 +578,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,6 +702,9 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -725,6 +728,9 @@
       <c r="G4" t="s">
         <v>3</v>
       </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -745,6 +751,9 @@
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -768,6 +777,9 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -791,6 +803,9 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -860,6 +875,9 @@
       <c r="G10" t="s">
         <v>3</v>
       </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -927,6 +945,9 @@
       <c r="G13" t="s">
         <v>3</v>
       </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -950,6 +971,9 @@
       <c r="G14" t="s">
         <v>3</v>
       </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -991,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1014,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1036,8 +1060,11 @@
       <c r="G18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1060,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1082,8 +1109,11 @@
       <c r="G20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1105,8 +1135,11 @@
       <c r="G21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1125,8 +1158,11 @@
       <c r="G22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1148,8 +1184,11 @@
       <c r="G23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1172,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1194,8 +1233,11 @@
       <c r="G25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1217,8 +1259,11 @@
       <c r="G26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1241,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1260,8 +1305,11 @@
       <c r="F28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1281,6 +1329,9 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
         <v>3</v>
       </c>
     </row>

--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="58">
   <si>
     <t>Alumnos</t>
   </si>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +705,12 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -731,6 +737,12 @@
       <c r="H4" t="s">
         <v>3</v>
       </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -754,6 +766,12 @@
       <c r="H5" t="s">
         <v>3</v>
       </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -780,6 +798,12 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -806,6 +830,12 @@
       <c r="H7" t="s">
         <v>3</v>
       </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -829,6 +859,12 @@
       <c r="G8" t="s">
         <v>3</v>
       </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -850,6 +886,12 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -878,6 +920,12 @@
       <c r="H10" t="s">
         <v>3</v>
       </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -901,6 +949,12 @@
       <c r="G11" t="s">
         <v>3</v>
       </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -922,6 +976,12 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -948,6 +1008,12 @@
       <c r="H13" t="s">
         <v>3</v>
       </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -974,6 +1040,12 @@
       <c r="H14" t="s">
         <v>3</v>
       </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -991,6 +1063,12 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1014,8 +1092,14 @@
       <c r="G16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1037,8 +1121,14 @@
       <c r="G17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1063,8 +1153,14 @@
       <c r="H18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1086,8 +1182,14 @@
       <c r="G19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1112,8 +1214,14 @@
       <c r="H20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1138,8 +1246,14 @@
       <c r="H21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1161,8 +1275,14 @@
       <c r="H22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -1187,8 +1307,14 @@
       <c r="H23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1210,8 +1336,17 @@
       <c r="G24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1236,8 +1371,14 @@
       <c r="H25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1262,8 +1403,14 @@
       <c r="H26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1285,8 +1432,14 @@
       <c r="G27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1308,8 +1461,14 @@
       <c r="H28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1332,6 +1491,12 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
         <v>3</v>
       </c>
     </row>

--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="60">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -230,12 +230,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +250,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -301,10 +301,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,23 +314,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,8 +342,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -355,8 +355,8 @@
   </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -364,9 +364,8 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="3"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="3.71255060728745"/>
-    <col collapsed="false" hidden="false" max="24" min="8" style="0" width="3"/>
+    <col collapsed="false" hidden="true" max="9" min="5" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="24" min="10" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -686,6 +685,9 @@
       <c r="K9" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="L9" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -874,6 +876,9 @@
         <v>5</v>
       </c>
       <c r="K15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="449" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="447" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="60">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -343,7 +343,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -355,17 +355,16 @@
   </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4251012145749"/>
-    <col collapsed="false" hidden="true" max="9" min="5" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="24" min="10" style="0" width="3"/>
+    <col collapsed="false" hidden="true" max="11" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="24" min="12" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -493,6 +492,12 @@
       <c r="L3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -528,6 +533,12 @@
       <c r="L4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -557,6 +568,9 @@
       <c r="L5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="N5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -592,6 +606,12 @@
       <c r="L6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -622,6 +642,12 @@
         <v>5</v>
       </c>
       <c r="K7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -656,8 +682,14 @@
       <c r="L8" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>7</v>
       </c>
@@ -686,6 +718,12 @@
         <v>5</v>
       </c>
       <c r="L9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -723,6 +761,12 @@
       <c r="L10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -755,6 +799,12 @@
       <c r="L11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -785,6 +835,9 @@
       <c r="L12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="N12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -820,6 +873,12 @@
       <c r="L13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -855,6 +914,12 @@
       <c r="L14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -881,6 +946,12 @@
       <c r="L15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -913,6 +984,12 @@
       <c r="L16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -945,6 +1022,12 @@
       <c r="L17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -980,6 +1063,12 @@
       <c r="L18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1012,6 +1101,12 @@
       <c r="L19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1047,6 +1142,12 @@
       <c r="L20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1082,6 +1183,12 @@
       <c r="L21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1114,6 +1221,9 @@
       <c r="L22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="N22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1149,6 +1259,12 @@
       <c r="L23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1184,6 +1300,12 @@
       <c r="L24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1219,6 +1341,12 @@
       <c r="L25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1254,6 +1382,12 @@
       <c r="L26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1286,6 +1420,12 @@
       <c r="L27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1318,6 +1458,12 @@
       <c r="L28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="M28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1353,8 +1499,14 @@
       <c r="L29" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <v>28</v>
       </c>
@@ -1386,6 +1538,12 @@
         <v>5</v>
       </c>
       <c r="L30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="60">
   <si>
     <t>Control Asistencias</t>
   </si>
@@ -230,6 +230,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,12 +256,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -301,10 +301,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,23 +314,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,8 +342,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -355,16 +355,16 @@
   </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="true" max="11" min="4" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="24" min="12" style="0" width="3"/>
+    <col collapsed="false" hidden="true" max="13" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="24" min="14" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -498,6 +498,12 @@
       <c r="N3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -539,6 +545,12 @@
       <c r="N4" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
@@ -571,6 +583,12 @@
       <c r="N5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -612,6 +630,12 @@
       <c r="N6" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -648,6 +672,12 @@
         <v>5</v>
       </c>
       <c r="N7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -688,8 +718,14 @@
       <c r="N8" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>7</v>
       </c>
@@ -724,6 +760,12 @@
         <v>5</v>
       </c>
       <c r="N9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -767,6 +809,12 @@
       <c r="N10" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -805,6 +853,12 @@
       <c r="N11" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="n">
@@ -838,6 +892,12 @@
       <c r="N12" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
@@ -879,6 +939,12 @@
       <c r="N13" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
@@ -920,6 +986,12 @@
       <c r="N14" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
@@ -952,6 +1024,12 @@
       <c r="N15" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
@@ -990,6 +1068,12 @@
       <c r="N16" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -1028,6 +1112,12 @@
       <c r="N17" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -1069,6 +1159,12 @@
       <c r="N18" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -1107,6 +1203,12 @@
       <c r="N19" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -1148,6 +1250,12 @@
       <c r="N20" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -1189,6 +1297,12 @@
       <c r="N21" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -1224,6 +1338,12 @@
       <c r="N22" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
@@ -1265,6 +1385,12 @@
       <c r="N23" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
@@ -1306,6 +1432,12 @@
       <c r="N24" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
@@ -1347,6 +1479,12 @@
       <c r="N25" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
@@ -1388,6 +1526,12 @@
       <c r="N26" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
@@ -1426,6 +1570,12 @@
       <c r="N27" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -1464,6 +1614,12 @@
       <c r="N28" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -1505,6 +1661,12 @@
       <c r="N29" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="O29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -1544,6 +1706,12 @@
         <v>5</v>
       </c>
       <c r="N30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/control_asistencia.xlsx
@@ -206,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -230,12 +230,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +250,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -304,21 +311,29 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,11 +341,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,8 +353,8 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Excel Built-in TableStyleLight1" xfId="21" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -355,15 +366,15 @@
   </sheetPr>
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.5748987854251"/>
-    <col collapsed="false" hidden="true" max="13" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="13" min="4" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="24" min="14" style="0" width="3"/>
     <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
   </cols>
@@ -460,7 +471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
@@ -512,13 +523,13 @@
       <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -559,13 +570,13 @@
       <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -597,13 +608,13 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -644,13 +655,13 @@
       <c r="C7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="0" t="s">
@@ -688,13 +699,13 @@
       <c r="C8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="0" t="s">
@@ -732,13 +743,13 @@
       <c r="C9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="0" t="s">
@@ -776,13 +787,13 @@
       <c r="C10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="0" t="s">
@@ -823,13 +834,13 @@
       <c r="C11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="0" t="s">
@@ -867,7 +878,7 @@
       <c r="C12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="4"/>
@@ -906,13 +917,13 @@
       <c r="C13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="0" t="s">
@@ -953,13 +964,13 @@
       <c r="C14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="0" t="s">
@@ -1000,7 +1011,7 @@
       <c r="C15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="0" t="s">
@@ -1038,13 +1049,13 @@
       <c r="C16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -1082,13 +1093,13 @@
       <c r="C17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="0" t="s">
@@ -1126,7 +1137,7 @@
       <c r="C18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="0" t="s">
@@ -1173,7 +1184,7 @@
       <c r="C19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="0" t="s">
@@ -1217,7 +1228,7 @@
       <c r="C20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="0" t="s">
@@ -1264,7 +1275,7 @@
       <c r="C21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="0" t="s">
@@ -1311,7 +1322,7 @@
       <c r="C22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="0" t="s">
@@ -1352,7 +1363,7 @@
       <c r="C23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="0" t="s">
@@ -1399,7 +1410,7 @@
       <c r="C24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="0" t="s">
@@ -1446,7 +1457,7 @@
       <c r="C25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="0" t="s">
@@ -1493,7 +1504,7 @@
       <c r="C26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -1540,7 +1551,7 @@
       <c r="C27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -1584,7 +1595,7 @@
       <c r="C28" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="0" t="s">
@@ -1628,7 +1639,7 @@
       <c r="C29" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="0" t="s">
